--- a/src/main/resources/xlsx/unit/school_unit.xlsx
+++ b/src/main/resources/xlsx/unit/school_unit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60134FE6-A70E-45DF-8C34-8851F2210D61}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B7AE7B-97AE-4309-A02D-9F259744B508}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,9 +109,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -108,6 +117,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +404,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -405,38 +417,53 @@
     <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
